--- a/datasets/vetor_target_CRE.xlsx
+++ b/datasets/vetor_target_CRE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed7a80ccca11c1e/Documents/BRUNA/MESTRADO/PROJETO MESTRADO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruna\OneDrive\Documents\BRUNA\MESTRADO\PROJETO MESTRADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6AAFFD-4905-44EE-9FB7-B0450E0D8EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F018AA-007C-48CC-83AC-6923045935E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" xr2:uid="{44B9C563-D362-4E0A-A77E-0E387EFA97C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{44B9C563-D362-4E0A-A77E-0E387EFA97C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,7 +382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,11 +390,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE4B2A9-F736-4682-A721-66536ACF1E55}">
-  <dimension ref="A1:A763"/>
+  <dimension ref="A1:A610"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A763"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -590,37 +588,37 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
@@ -3445,771 +3443,6 @@
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A610">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A611">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A612">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A613">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A614">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A615">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A616">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A617">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A618">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A619">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A620">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A621">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A622">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A623">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A624">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A625">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A626">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A627">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A628">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A629">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A630">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A631">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A632">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A633">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A634">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A635">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A636">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A637">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A638">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A639">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A640">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A641">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A642">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A643">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A644">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A645">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A646">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A647">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A648">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A649">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A650">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A651">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A652">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A653">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A654">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A655">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A656">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A657">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A658">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A659">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A660">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A661">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A662">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A663">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A664">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A665">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A666">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A667">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A668">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A669">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A670">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A671">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A672">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A673">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A674">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A675">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A676">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A677">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A678">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A679">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A680">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A681">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A682">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A683">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A684">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A685">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A686">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A687">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A688">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A689">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A690">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A691">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A692">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A693">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A694">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A695">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A696">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A697">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A698">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A699">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A700">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A701">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A702">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A703">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A704">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A705">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A706">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A707">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A708">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A709">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A710">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A711">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A712">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A713">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A714">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A715">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A716">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A717">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A718">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A719">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A720">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A721">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A722">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A723">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A724">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A725">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A726">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A727">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A728">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A729">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A730">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A731">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A732">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A733">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A734">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A735">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A736">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A737">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A738">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A739">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A740">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A741">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A742">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A743">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A744">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A745">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A746">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A747">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A748">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A749">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A750">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A751">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A752">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A753">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A754">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A755">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A756">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A757">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A758">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A759">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A760">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A761">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A762">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A763">
         <v>0</v>
       </c>
     </row>
